--- a/Devops Knowledge Checker Release 0 .xlsx
+++ b/Devops Knowledge Checker Release 0 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler.shepherd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468FF61-D77E-F642-ACBD-D52E5A49E5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36E502-AAA7-2E44-8973-19E7566864DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,6 +754,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,8 +776,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -774,18 +786,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,8 +1080,8 @@
   <dimension ref="A1:X1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1092,11 +1092,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="36.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1120,11 +1120,11 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1148,11 +1148,11 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="13">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1176,9 +1176,9 @@
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="60.75" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1202,11 +1202,11 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="36.75" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1230,11 +1230,11 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="51.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1340,11 +1340,11 @@
       <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="28.5" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="B13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1462,7 +1462,7 @@
       <c r="B14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1489,7 +1489,7 @@
       <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="22"/>
@@ -1519,7 +1519,7 @@
       <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="23"/>
@@ -1668,7 +1668,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="1"/>
@@ -1993,7 +1993,7 @@
       <c r="A32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="30"/>
@@ -2023,7 +2023,7 @@
       <c r="A33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="37"/>
@@ -2053,7 +2053,7 @@
       <c r="A34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="37"/>
@@ -2083,7 +2083,7 @@
       <c r="A35" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="37"/>
@@ -2113,10 +2113,10 @@
       <c r="A36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2143,10 +2143,10 @@
       <c r="A37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
